--- a/Lacex_summary_FinalConfirmation_moredata_7.xlsx
+++ b/Lacex_summary_FinalConfirmation_moredata_7.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Documents\MATLAB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D11E53-60CF-49AD-B26A-6A64F900DF94}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6BF27-F2D3-4670-9295-75DB055868A9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11835" xr2:uid="{B3CDF648-B9C8-4586-B54C-BAB4695A4616}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{B3CDF648-B9C8-4586-B54C-BAB4695A4616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -377,135 +377,130 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41C3414-AD07-465A-8511-8CEBEE8E5913}">
-  <dimension ref="A1:R22"/>
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:R22"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>2.0820217317263877E-2</v>
       </c>
       <c r="B1">
-        <v>3.5203692016246768E-3</v>
+        <v>3.5169399360970607E-3</v>
       </c>
       <c r="C1">
-        <v>0.12107628616756361</v>
+        <v>0.12107970624224358</v>
       </c>
       <c r="D1">
-        <v>3.4496132996200204E-2</v>
+        <v>3.4496132994929443E-2</v>
       </c>
       <c r="E1">
         <v>0.05</v>
       </c>
       <c r="F1">
-        <v>0.13128068728148345</v>
+        <v>0.13109990774765862</v>
       </c>
       <c r="G1">
-        <v>2.6713297629141625E-2</v>
+        <v>2.6712808540478521E-2</v>
       </c>
       <c r="H1">
-        <v>0.12688284262343283</v>
+        <v>0.12655292562651008</v>
       </c>
       <c r="I1">
-        <v>0.89999999999997782</v>
+        <v>2.356211808499348</v>
       </c>
       <c r="J1">
-        <v>2.356211808499348</v>
+        <v>21.803071789133948</v>
       </c>
       <c r="K1">
-        <v>21.803071789133948</v>
+        <v>254686091.39268142</v>
       </c>
       <c r="L1">
-        <v>254686091.39268142</v>
+        <v>0.99715195305452031</v>
       </c>
       <c r="M1">
-        <v>0.99715195303777349</v>
+        <v>0.99698512513099558</v>
       </c>
       <c r="N1">
-        <v>0.99697793995839246</v>
+        <v>0.99429005560898154</v>
       </c>
       <c r="O1">
-        <v>0.99430404282542573</v>
+        <v>7.6353436572263747E-2</v>
       </c>
       <c r="P1">
-        <v>7.6353436574511852E-2</v>
+        <v>7.8845522149722264E-2</v>
       </c>
       <c r="Q1">
-        <v>7.896536546145666E-2</v>
-      </c>
-      <c r="R1">
-        <v>0.13731467008545944</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.13737118012803626</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1.9733140945626653E-2</v>
       </c>
       <c r="B2">
-        <v>3.9270025229533375E-3</v>
+        <v>4.7149411212856181E-3</v>
       </c>
       <c r="C2">
-        <v>0.21794535237223148</v>
+        <v>0.21715701586659536</v>
       </c>
       <c r="D2">
-        <v>0.1009988430136515</v>
+        <v>0.10099883170025307</v>
       </c>
       <c r="E2">
         <v>0.05</v>
       </c>
       <c r="F2">
-        <v>0.11894144238949632</v>
+        <v>0.16790577296492573</v>
       </c>
       <c r="G2">
-        <v>2.6544224115546196E-2</v>
+        <v>2.6628020950099317E-2</v>
       </c>
       <c r="H2">
-        <v>4.8315094866289453E-2</v>
+        <v>0.10471768827502373</v>
       </c>
       <c r="I2">
-        <v>0.89999999999997782</v>
+        <v>5.6114128380547523</v>
       </c>
       <c r="J2">
-        <v>5.6114128380547523</v>
+        <v>13.325806205528517</v>
       </c>
       <c r="K2">
-        <v>13.325806205528517</v>
+        <v>161047158.1115168</v>
       </c>
       <c r="L2">
-        <v>161047158.1115168</v>
+        <v>0.99709416782211147</v>
       </c>
       <c r="M2">
-        <v>0.99709416769265702</v>
+        <v>0.98806944040919575</v>
       </c>
       <c r="N2">
-        <v>0.98619128378373777</v>
+        <v>0.99053233780031102</v>
       </c>
       <c r="O2">
-        <v>0.99689203940632309</v>
+        <v>7.6844094332034527E-2</v>
       </c>
       <c r="P2">
-        <v>7.6844094339646452E-2</v>
+        <v>0.15675150740416502</v>
       </c>
       <c r="Q2">
-        <v>0.16809022029453535</v>
-      </c>
-      <c r="R2">
-        <v>7.8981976537586651E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.13668541602353645</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2.0373437571014927E-2</v>
       </c>
       <c r="B3">
-        <v>3.5722948796993574E-3</v>
+        <v>3.5722951314784385E-3</v>
       </c>
       <c r="C3">
-        <v>0.23159605943090825</v>
+        <v>0.23159605917893411</v>
       </c>
       <c r="D3">
         <v>4.2474656821956315E-2</v>
@@ -514,166 +509,157 @@
         <v>0.05</v>
       </c>
       <c r="F3">
-        <v>0.10010717873126998</v>
+        <v>0.10010719053262282</v>
       </c>
       <c r="G3">
-        <v>2.657294281662136E-2</v>
+        <v>2.657294283190342E-2</v>
       </c>
       <c r="H3">
-        <v>6.0163490309630703E-2</v>
+        <v>6.0163509645065387E-2</v>
       </c>
       <c r="I3">
-        <v>0.85500000000000154</v>
+        <v>2.8545008818278075</v>
       </c>
       <c r="J3">
-        <v>2.8545008818278075</v>
+        <v>21.325821593945335</v>
       </c>
       <c r="K3">
-        <v>21.325821593945335</v>
+        <v>491427690.54543257</v>
       </c>
       <c r="L3">
-        <v>491427690.54543257</v>
+        <v>0.99564380003670705</v>
       </c>
       <c r="M3">
-        <v>0.99564380003670738</v>
+        <v>0.99195189871721545</v>
       </c>
       <c r="N3">
-        <v>0.99195189766705383</v>
+        <v>0.9975002658986678</v>
       </c>
       <c r="O3">
-        <v>0.99750026782697909</v>
+        <v>9.5112350349509517E-2</v>
       </c>
       <c r="P3">
-        <v>9.5112350349509572E-2</v>
+        <v>0.12687862166325717</v>
       </c>
       <c r="Q3">
-        <v>0.12687863016075035</v>
-      </c>
-      <c r="R3">
-        <v>8.6639876500584551E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+        <v>8.6639901191665147E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.9607843137277106E-2</v>
       </c>
       <c r="B4">
-        <v>1.6436759239448383E-2</v>
+        <v>1.643675923943675E-2</v>
       </c>
       <c r="C4">
-        <v>2.4499099752496248E-7</v>
+        <v>2.4499097259713425E-7</v>
       </c>
       <c r="D4">
-        <v>4.4938477565302393E-2</v>
+        <v>4.4938477584411128E-2</v>
       </c>
       <c r="E4">
         <v>0.05</v>
       </c>
       <c r="F4">
-        <v>0.81949132172418737</v>
+        <v>0.81949132246495249</v>
       </c>
       <c r="G4">
-        <v>2.7527036132297567E-2</v>
+        <v>2.7527036162307911E-2</v>
       </c>
       <c r="H4">
-        <v>0.75835013404968665</v>
+        <v>0.75835013427812015</v>
       </c>
       <c r="I4">
-        <v>7.1846075603886159E-2</v>
+        <v>5.740537779224173</v>
       </c>
       <c r="J4">
-        <v>5.740537779224173</v>
+        <v>11.932971008367586</v>
       </c>
       <c r="K4">
-        <v>11.932971008367586</v>
+        <v>142097848.58194768</v>
       </c>
       <c r="L4">
-        <v>142097848.58194768</v>
+        <v>0.99706208554279607</v>
       </c>
       <c r="M4">
-        <v>0.99706208554279629</v>
+        <v>0.96122485019497461</v>
       </c>
       <c r="N4">
-        <v>0.96122485019066772</v>
+        <v>0.98308955539383358</v>
       </c>
       <c r="O4">
-        <v>0.98308955538769915</v>
+        <v>7.8465803101794615E-2</v>
       </c>
       <c r="P4">
-        <v>7.8465803101794754E-2</v>
+        <v>0.27618044185623797</v>
       </c>
       <c r="Q4">
-        <v>0.27618044192047503</v>
-      </c>
-      <c r="R4">
-        <v>0.18422857589431571</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.18422857588110009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.0246798750845386E-2</v>
       </c>
       <c r="B5">
-        <v>1.8631558508441403E-2</v>
+        <v>1.8631525590243718E-2</v>
       </c>
       <c r="C5">
-        <v>0.32444969710825206</v>
+        <v>0.32444973004379074</v>
       </c>
       <c r="D5">
-        <v>8.185693979149733E-2</v>
+        <v>8.1856939790474523E-2</v>
       </c>
       <c r="E5">
         <v>2.5000000000000022E-2</v>
       </c>
       <c r="F5">
-        <v>0.80877069672390867</v>
+        <v>0.80876935253860349</v>
       </c>
       <c r="G5">
-        <v>2.6762398113434126E-2</v>
+        <v>2.6762397648145215E-2</v>
       </c>
       <c r="H5">
-        <v>0.71089302599510229</v>
+        <v>0.71089162552655227</v>
       </c>
       <c r="I5">
-        <v>0.10826547926680212</v>
+        <v>3.2019451544874276</v>
       </c>
       <c r="J5">
-        <v>3.2019451544874276</v>
+        <v>20.291269270471243</v>
       </c>
       <c r="K5">
-        <v>20.291269270471243</v>
+        <v>629017289.17440271</v>
       </c>
       <c r="L5">
-        <v>629017289.17440271</v>
+        <v>0.9960922483962299</v>
       </c>
       <c r="M5">
-        <v>0.99609224839623456</v>
+        <v>0.98236957903449951</v>
       </c>
       <c r="N5">
-        <v>0.98236958313923561</v>
+        <v>0.99310448773248805</v>
       </c>
       <c r="O5">
-        <v>0.99310448342427149</v>
+        <v>9.1131006256589264E-2</v>
       </c>
       <c r="P5">
-        <v>9.1131006256588917E-2</v>
+        <v>0.1875514013239159</v>
       </c>
       <c r="Q5">
-        <v>0.18755138012852401</v>
-      </c>
-      <c r="R5">
-        <v>0.11818454659894365</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.11818451239571083</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.0231173436181211E-2</v>
       </c>
       <c r="B6">
-        <v>1.2730292864188121E-2</v>
+        <v>1.2730292864193287E-2</v>
       </c>
       <c r="C6">
-        <v>1.000002224017005E-8</v>
+        <v>1.0000022240169996E-8</v>
       </c>
       <c r="D6">
         <v>4.1211097230698865E-2</v>
@@ -682,54 +668,51 @@
         <v>0.05</v>
       </c>
       <c r="F6">
-        <v>0.40187466748693501</v>
+        <v>0.40187466748697903</v>
       </c>
       <c r="G6">
-        <v>2.7579323265802421E-2</v>
+        <v>2.7579323247672368E-2</v>
       </c>
       <c r="H6">
-        <v>0.1937217246831362</v>
+        <v>0.19372172470132182</v>
       </c>
       <c r="I6">
-        <v>0.7466495328781998</v>
+        <v>4.8009905427717481</v>
       </c>
       <c r="J6">
-        <v>4.8009905427717481</v>
+        <v>12.427855211851746</v>
       </c>
       <c r="K6">
-        <v>12.427855211851746</v>
+        <v>149956135.49829885</v>
       </c>
       <c r="L6">
-        <v>149956135.49829885</v>
+        <v>0.99720075069261938</v>
       </c>
       <c r="M6">
-        <v>0.99720075069261971</v>
+        <v>0.98945236931035441</v>
       </c>
       <c r="N6">
-        <v>0.98945236931035263</v>
+        <v>0.99609561330538687</v>
       </c>
       <c r="O6">
-        <v>0.99609561330538643</v>
+        <v>7.5644718628317176E-2</v>
       </c>
       <c r="P6">
-        <v>7.5644718628317217E-2</v>
+        <v>0.15395167000485568</v>
       </c>
       <c r="Q6">
-        <v>0.15395167000489013</v>
-      </c>
-      <c r="R6">
-        <v>0.10849821945877333</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.10849821945876659</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.0353745829935717E-2</v>
       </c>
       <c r="B7">
-        <v>1.1292693615715436E-2</v>
+        <v>1.1292693615281435E-2</v>
       </c>
       <c r="C7">
-        <v>1.6610252726262445E-2</v>
+        <v>1.6610252726698187E-2</v>
       </c>
       <c r="D7">
         <v>4.3939373513642986E-2</v>
@@ -738,54 +721,51 @@
         <v>0.05</v>
       </c>
       <c r="F7">
-        <v>7.7538998778002327E-2</v>
+        <v>7.7538998771506329E-2</v>
       </c>
       <c r="G7">
-        <v>2.7725276470597457E-2</v>
+        <v>2.7725276291025024E-2</v>
       </c>
       <c r="H7">
-        <v>0.10141655583043917</v>
+        <v>0.10141655599363036</v>
       </c>
       <c r="I7">
-        <v>0.82161904270270236</v>
+        <v>1.952898836424503</v>
       </c>
       <c r="J7">
-        <v>1.952898836424503</v>
+        <v>19.644723056687244</v>
       </c>
       <c r="K7">
-        <v>19.644723056687244</v>
+        <v>132744891.08503906</v>
       </c>
       <c r="L7">
-        <v>132744891.08503906</v>
+        <v>0.9990021677150106</v>
       </c>
       <c r="M7">
-        <v>0.9990021677150106</v>
+        <v>0.99810627144036812</v>
       </c>
       <c r="N7">
-        <v>0.99810627144057806</v>
+        <v>0.99651413469598349</v>
       </c>
       <c r="O7">
-        <v>0.99651413469506567</v>
+        <v>4.4448064995316568E-2</v>
       </c>
       <c r="P7">
-        <v>4.4448064995316623E-2</v>
+        <v>6.4135328548772935E-2</v>
       </c>
       <c r="Q7">
-        <v>6.4135328545853909E-2</v>
-      </c>
-      <c r="R7">
-        <v>9.2344832374306865E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+        <v>9.2344832363051771E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.0413343553053055E-2</v>
       </c>
       <c r="B8">
-        <v>2.1741657686275048E-2</v>
+        <v>2.1741659832465655E-2</v>
       </c>
       <c r="C8">
-        <v>0.20115425971724685</v>
+        <v>0.20115425756944674</v>
       </c>
       <c r="D8">
         <v>5.7155366638084328E-2</v>
@@ -794,166 +774,157 @@
         <v>0.05</v>
       </c>
       <c r="F8">
-        <v>0.17067217292612685</v>
+        <v>0.1706721983492302</v>
       </c>
       <c r="G8">
-        <v>2.6887370342372735E-2</v>
+        <v>2.6887370448090527E-2</v>
       </c>
       <c r="H8">
-        <v>0.37336238816439554</v>
+        <v>0.37336246391141426</v>
       </c>
       <c r="I8">
-        <v>0.89999999999997782</v>
+        <v>2.4430206679346318</v>
       </c>
       <c r="J8">
-        <v>2.4430206679346318</v>
+        <v>21.436078918089322</v>
       </c>
       <c r="K8">
-        <v>21.436078918089322</v>
+        <v>457955160.74923623</v>
       </c>
       <c r="L8">
-        <v>457955160.74923623</v>
+        <v>0.99837921856526513</v>
       </c>
       <c r="M8">
-        <v>0.99837921856526479</v>
+        <v>0.99742113506768004</v>
       </c>
       <c r="N8">
-        <v>0.99742113449256142</v>
+        <v>0.98747598546314608</v>
       </c>
       <c r="O8">
-        <v>0.98747598923191182</v>
+        <v>5.7511587860477421E-2</v>
       </c>
       <c r="P8">
-        <v>5.7511587860478094E-2</v>
+        <v>7.1367754878516099E-2</v>
       </c>
       <c r="Q8">
-        <v>7.1367762870934812E-2</v>
-      </c>
-      <c r="R8">
-        <v>0.16046721736723316</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.16046724036731369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.9852158985953147E-2</v>
       </c>
       <c r="B9">
-        <v>7.1703140037270255E-2</v>
+        <v>7.1703143590499382E-2</v>
       </c>
       <c r="C9">
-        <v>0.25537297656109686</v>
+        <v>0.25537297217055394</v>
       </c>
       <c r="D9">
-        <v>0.1009999994663532</v>
+        <v>0.10099999946635321</v>
       </c>
       <c r="E9">
         <v>0.05</v>
       </c>
       <c r="F9">
-        <v>3.3111048937750498</v>
+        <v>3.3111050458740237</v>
       </c>
       <c r="G9">
-        <v>2.8011204481749295E-2</v>
+        <v>2.8011204338787486E-2</v>
       </c>
       <c r="H9">
-        <v>9.9999995552094738</v>
+        <v>9.9999999999999574</v>
       </c>
       <c r="I9">
-        <v>0.30208887649327165</v>
+        <v>4.3363113643580764</v>
       </c>
       <c r="J9">
-        <v>4.3363113643580764</v>
+        <v>16.1052860544001</v>
       </c>
       <c r="K9">
-        <v>16.1052860544001</v>
+        <v>1205583684.8478703</v>
       </c>
       <c r="L9">
-        <v>1205583684.8478703</v>
+        <v>0.99455792352188377</v>
       </c>
       <c r="M9">
-        <v>0.99455792352179984</v>
+        <v>0.95888080322998459</v>
       </c>
       <c r="N9">
-        <v>0.95888080326795011</v>
+        <v>0.98176189466586172</v>
       </c>
       <c r="O9">
-        <v>0.9817618946886344</v>
+        <v>0.10398649260516019</v>
       </c>
       <c r="P9">
-        <v>0.10398649260518235</v>
+        <v>0.29760675900730033</v>
       </c>
       <c r="Q9">
-        <v>0.2976067588913559</v>
-      </c>
-      <c r="R9">
-        <v>0.19874060053766929</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.19874060064717955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.9607843137277106E-2</v>
       </c>
       <c r="B10">
-        <v>6.9386267667689294E-3</v>
+        <v>6.9386238978989372E-3</v>
       </c>
       <c r="C10">
-        <v>2.0973505864017711E-2</v>
+        <v>2.0973508734494335E-2</v>
       </c>
       <c r="D10">
-        <v>6.8855877058437542E-2</v>
+        <v>6.885587705843417E-2</v>
       </c>
       <c r="E10">
         <v>0.05</v>
       </c>
       <c r="F10">
-        <v>0.67879237339599874</v>
+        <v>0.67879206791997382</v>
       </c>
       <c r="G10">
-        <v>2.6880216613523075E-2</v>
+        <v>2.6880216431153865E-2</v>
       </c>
       <c r="H10">
-        <v>0.74685372531266025</v>
+        <v>0.74685335688509635</v>
       </c>
       <c r="I10">
-        <v>0.48480253974823168</v>
+        <v>3.6193816110419976</v>
       </c>
       <c r="J10">
-        <v>3.6193816110419976</v>
+        <v>10.497888967303272</v>
       </c>
       <c r="K10">
-        <v>10.497888967303272</v>
+        <v>83209857.156356871</v>
       </c>
       <c r="L10">
-        <v>83209857.156356871</v>
+        <v>0.99668268074376321</v>
       </c>
       <c r="M10">
-        <v>0.99668268074376565</v>
+        <v>0.98816900070963631</v>
       </c>
       <c r="N10">
-        <v>0.98816900260036455</v>
+        <v>0.99342995672515344</v>
       </c>
       <c r="O10">
-        <v>0.99342995442341198</v>
+        <v>8.102243182744423E-2</v>
       </c>
       <c r="P10">
-        <v>8.1022431827443328E-2</v>
+        <v>0.15549616299595023</v>
       </c>
       <c r="Q10">
-        <v>0.1554961508557634</v>
-      </c>
-      <c r="R10">
-        <v>0.11449316256647389</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.11449314432407066</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.9607898537244421E-2</v>
       </c>
       <c r="B11">
-        <v>1.6011376327456431E-2</v>
+        <v>1.601137632737961E-2</v>
       </c>
       <c r="C11">
-        <v>0.16416597421040091</v>
+        <v>0.16416597421048681</v>
       </c>
       <c r="D11">
         <v>4.4786160320018684E-2</v>
@@ -962,166 +933,157 @@
         <v>0.05</v>
       </c>
       <c r="F11">
-        <v>0.11259831944988948</v>
+        <v>0.11259831944893747</v>
       </c>
       <c r="G11">
-        <v>2.674045920041665E-2</v>
+        <v>2.6740459200633851E-2</v>
       </c>
       <c r="H11">
-        <v>0.19341277128914791</v>
+        <v>0.19341277128644854</v>
       </c>
       <c r="I11">
-        <v>1.1080193112185568E-3</v>
+        <v>2.8612100103634148</v>
       </c>
       <c r="J11">
-        <v>2.8612100103634148</v>
+        <v>21.999999999999766</v>
       </c>
       <c r="K11">
-        <v>21.999999999999766</v>
+        <v>44059879.020455331</v>
       </c>
       <c r="L11">
-        <v>44059879.020455331</v>
+        <v>0.99213822043406674</v>
       </c>
       <c r="M11">
-        <v>0.99213822043406674</v>
+        <v>0.99410689665321517</v>
       </c>
       <c r="N11">
-        <v>0.99410689665322982</v>
+        <v>0.99318593593231375</v>
       </c>
       <c r="O11">
-        <v>0.99318593593226379</v>
+        <v>0.12446931357464565</v>
       </c>
       <c r="P11">
-        <v>0.12446931357464566</v>
+        <v>0.11717603932055218</v>
       </c>
       <c r="Q11">
-        <v>0.11717603932045334</v>
-      </c>
-      <c r="R11">
-        <v>0.14617259290293025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.14617259290247886</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1.9956398044476902E-2</v>
       </c>
       <c r="B12">
-        <v>7.9999998631835628E-2</v>
+        <v>7.9999998631590172E-2</v>
       </c>
       <c r="C12">
-        <v>2.0253745732820758</v>
+        <v>2.0253745884651098</v>
       </c>
       <c r="D12">
-        <v>3.7752360468585877E-2</v>
+        <v>3.7752360468550607E-2</v>
       </c>
       <c r="E12">
         <v>0.05</v>
       </c>
       <c r="F12">
-        <v>0.17771783645977063</v>
+        <v>0.17771783497494778</v>
       </c>
       <c r="G12">
-        <v>2.6558063394336747E-2</v>
+        <v>2.6558063394524413E-2</v>
       </c>
       <c r="H12">
-        <v>0.37297088553168029</v>
+        <v>0.37297088689088231</v>
       </c>
       <c r="I12">
-        <v>0.46566471639757567</v>
+        <v>5.3408895358905601</v>
       </c>
       <c r="J12">
-        <v>5.3408895358905601</v>
+        <v>16.528286829967154</v>
       </c>
       <c r="K12">
-        <v>16.528286829967154</v>
+        <v>1300249383.1199305</v>
       </c>
       <c r="L12">
-        <v>1300249383.1199305</v>
+        <v>0.97974716190290345</v>
       </c>
       <c r="M12">
-        <v>0.97974716190269573</v>
+        <v>0.9211136171444414</v>
       </c>
       <c r="N12">
-        <v>0.9211136173465182</v>
+        <v>0.96652871302443544</v>
       </c>
       <c r="O12">
-        <v>0.96652871310521871</v>
+        <v>0.20055744184991922</v>
       </c>
       <c r="P12">
-        <v>0.20055744185175536</v>
+        <v>0.38892612048881597</v>
       </c>
       <c r="Q12">
-        <v>0.38892611999199328</v>
-      </c>
-      <c r="R12">
-        <v>0.25549573339716186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.25549573430289896</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1.9900115423244515E-2</v>
       </c>
       <c r="B13">
-        <v>1.2083222217916679E-2</v>
+        <v>1.1656494342373409E-2</v>
       </c>
       <c r="C13">
-        <v>6.6584629103317569E-2</v>
+        <v>6.7011417208509436E-2</v>
       </c>
       <c r="D13">
-        <v>5.2901198119530153E-2</v>
+        <v>5.2901198385292801E-2</v>
       </c>
       <c r="E13">
         <v>0.05</v>
       </c>
       <c r="F13">
-        <v>0.22666554150529447</v>
+        <v>0.21544229559714445</v>
       </c>
       <c r="G13">
-        <v>2.7216774383633412E-2</v>
+        <v>2.7156876056611035E-2</v>
       </c>
       <c r="H13">
-        <v>0.81368797062715814</v>
+        <v>0.76915827251782443</v>
       </c>
       <c r="I13">
-        <v>1.6495876565276589E-2</v>
+        <v>4.079138265678818</v>
       </c>
       <c r="J13">
-        <v>4.079138265678818</v>
+        <v>14.773602809897632</v>
       </c>
       <c r="K13">
-        <v>14.773602809897632</v>
+        <v>566450101.24093688</v>
       </c>
       <c r="L13">
-        <v>566450101.24093688</v>
+        <v>0.99898533029384728</v>
       </c>
       <c r="M13">
-        <v>0.99898533026569147</v>
+        <v>0.99830878475736573</v>
       </c>
       <c r="N13">
-        <v>0.99837386083377466</v>
+        <v>0.93150800311348647</v>
       </c>
       <c r="O13">
-        <v>0.92958427001388722</v>
+        <v>4.4815903386262242E-2</v>
       </c>
       <c r="P13">
-        <v>4.481590340306478E-2</v>
+        <v>6.5995243156306796E-2</v>
       </c>
       <c r="Q13">
-        <v>6.5116393391697086E-2</v>
-      </c>
-      <c r="R13">
-        <v>0.38139432399221862</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.37629826383870468</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1.9701619257540246E-2</v>
       </c>
       <c r="B14">
-        <v>4.859469578104421E-3</v>
+        <v>4.8594695428023759E-3</v>
       </c>
       <c r="C14">
-        <v>5.4286365921728027E-3</v>
+        <v>5.4286366275248374E-3</v>
       </c>
       <c r="D14">
         <v>4.1244680681712553E-2</v>
@@ -1130,54 +1092,51 @@
         <v>0.05</v>
       </c>
       <c r="F14">
-        <v>3.169540469184115E-2</v>
+        <v>3.1695403804336414E-2</v>
       </c>
       <c r="G14">
-        <v>2.723816394336491E-2</v>
+        <v>2.7240420055819468E-2</v>
       </c>
       <c r="H14">
-        <v>4.8883051214900698E-2</v>
+        <v>4.8880791162919761E-2</v>
       </c>
       <c r="I14">
-        <v>0.89999999999997782</v>
+        <v>4.5658015908569123</v>
       </c>
       <c r="J14">
-        <v>4.5658015908569123</v>
+        <v>13.024147455245862</v>
       </c>
       <c r="K14">
-        <v>13.024147455245862</v>
+        <v>350999697.1980691</v>
       </c>
       <c r="L14">
-        <v>350999697.1980691</v>
+        <v>0.99208183721397902</v>
       </c>
       <c r="M14">
-        <v>0.99208183721398036</v>
+        <v>0.99510517168031487</v>
       </c>
       <c r="N14">
-        <v>0.99510517171730339</v>
+        <v>0.99232373576065824</v>
       </c>
       <c r="O14">
-        <v>0.99232373529410745</v>
+        <v>0.12573147808212531</v>
       </c>
       <c r="P14">
-        <v>0.12573147808212526</v>
+        <v>0.10217162519963779</v>
       </c>
       <c r="Q14">
-        <v>0.10217162491362643</v>
-      </c>
-      <c r="R14">
-        <v>0.12658407929649365</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.12658407553496942</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1.9652430387734197E-2</v>
       </c>
       <c r="B15">
-        <v>8.1697633508590224E-3</v>
+        <v>8.1697630114300358E-3</v>
       </c>
       <c r="C15">
-        <v>8.8236454893463309E-2</v>
+        <v>8.8236455233326586E-2</v>
       </c>
       <c r="D15">
         <v>0.10099997314054079</v>
@@ -1186,54 +1145,51 @@
         <v>0.05</v>
       </c>
       <c r="F15">
-        <v>5.7518772621497759E-2</v>
+        <v>5.7518764526399264E-2</v>
       </c>
       <c r="G15">
-        <v>2.6537330098290107E-2</v>
+        <v>2.6537509877480797E-2</v>
       </c>
       <c r="H15">
-        <v>3.2765650732901878E-2</v>
+        <v>3.2765454284516708E-2</v>
       </c>
       <c r="I15">
-        <v>0.89999999999997782</v>
+        <v>6.1031742274447058</v>
       </c>
       <c r="J15">
-        <v>6.1031742274447058</v>
+        <v>13.766984672850123</v>
       </c>
       <c r="K15">
-        <v>13.766984672850123</v>
+        <v>621934179.43162954</v>
       </c>
       <c r="L15">
-        <v>621934179.43162954</v>
+        <v>0.99882163146230707</v>
       </c>
       <c r="M15">
-        <v>0.99882163146230796</v>
+        <v>0.98836006546807553</v>
       </c>
       <c r="N15">
-        <v>0.98836006616901928</v>
+        <v>0.99467263163359698</v>
       </c>
       <c r="O15">
-        <v>0.99467262909002618</v>
+        <v>4.8286267138186213E-2</v>
       </c>
       <c r="P15">
-        <v>4.8286267138185256E-2</v>
+        <v>0.15203318379251202</v>
       </c>
       <c r="Q15">
-        <v>0.15203317924765941</v>
-      </c>
-      <c r="R15">
-        <v>0.10393393183962503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.10393390746880479</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2.1218030858034698E-2</v>
       </c>
       <c r="B16">
-        <v>4.4401729448884701E-2</v>
+        <v>4.4401747797794933E-2</v>
       </c>
       <c r="C16">
-        <v>0.33800132190098348</v>
+        <v>0.33800130355401653</v>
       </c>
       <c r="D16">
         <v>8.8775186144930768E-2</v>
@@ -1242,110 +1198,104 @@
         <v>0.05</v>
       </c>
       <c r="F16">
-        <v>1.8830157115035349</v>
+        <v>1.8830164024485863</v>
       </c>
       <c r="G16">
-        <v>2.8011204481769393E-2</v>
+        <v>2.8011204481770493E-2</v>
       </c>
       <c r="H16">
-        <v>9.9999999999999751</v>
+        <v>9.9999999999999787</v>
       </c>
       <c r="I16">
-        <v>8.0146691704817072E-2</v>
+        <v>2.8975994027540488</v>
       </c>
       <c r="J16">
-        <v>2.8975994027540488</v>
+        <v>20.4810419967835</v>
       </c>
       <c r="K16">
-        <v>20.4810419967835</v>
+        <v>818269300.73777747</v>
       </c>
       <c r="L16">
-        <v>818269300.73777747</v>
+        <v>0.99463967383988983</v>
       </c>
       <c r="M16">
-        <v>0.99463967383988927</v>
+        <v>0.98555015266463208</v>
       </c>
       <c r="N16">
-        <v>0.98555015262423784</v>
+        <v>0.96924726186236454</v>
       </c>
       <c r="O16">
-        <v>0.96924726198231981</v>
+        <v>0.10311916123851618</v>
       </c>
       <c r="P16">
-        <v>0.10311916123851619</v>
+        <v>0.19758335759069551</v>
       </c>
       <c r="Q16">
-        <v>0.19758335778005071</v>
-      </c>
-      <c r="R16">
-        <v>0.24694674046504714</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.24694674470564895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2.0452516015485079E-2</v>
       </c>
       <c r="B17">
-        <v>8.6470988867568856E-3</v>
+        <v>8.6470982591059682E-3</v>
       </c>
       <c r="C17">
-        <v>1.7996828057659537E-3</v>
+        <v>1.799683439684629E-3</v>
       </c>
       <c r="D17">
-        <v>4.1438210496739326E-2</v>
+        <v>4.1438211742912685E-2</v>
       </c>
       <c r="E17">
         <v>0.05</v>
       </c>
       <c r="F17">
-        <v>0.19227038299219074</v>
+        <v>0.19227036253692606</v>
       </c>
       <c r="G17">
-        <v>2.8011204474520126E-2</v>
+        <v>2.801120447452039E-2</v>
       </c>
       <c r="H17">
-        <v>7.211963011063921E-2</v>
+        <v>7.2119610152286059E-2</v>
       </c>
       <c r="I17">
-        <v>7.1940569810921742E-2</v>
+        <v>4.9944093087717132</v>
       </c>
       <c r="J17">
-        <v>4.9944093087717132</v>
+        <v>12.776190062322122</v>
       </c>
       <c r="K17">
-        <v>12.776190062322122</v>
+        <v>87097810.529802099</v>
       </c>
       <c r="L17">
-        <v>87097810.529802099</v>
+        <v>0.99683910602941672</v>
       </c>
       <c r="M17">
-        <v>0.99683910602956216</v>
+        <v>0.98631051379880685</v>
       </c>
       <c r="N17">
-        <v>0.98631051490791377</v>
+        <v>0.9985597316220709</v>
       </c>
       <c r="O17">
-        <v>0.99855973196622483</v>
+        <v>8.2129030088472721E-2</v>
       </c>
       <c r="P17">
-        <v>8.2129030088452348E-2</v>
+        <v>0.17095831956607618</v>
       </c>
       <c r="Q17">
-        <v>0.17095831292298935</v>
-      </c>
-      <c r="R17">
-        <v>6.8171266929856811E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+        <v>6.8171268838261204E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1.9803649806131994E-2</v>
       </c>
       <c r="B18">
-        <v>5.2473725636325824E-2</v>
+        <v>5.2473711482204914E-2</v>
       </c>
       <c r="C18">
-        <v>0.12212511451537725</v>
+        <v>0.12212512867094361</v>
       </c>
       <c r="D18">
         <v>6.610186133474881E-2</v>
@@ -1354,46 +1304,43 @@
         <v>0.05</v>
       </c>
       <c r="F18">
-        <v>0.73843240597140725</v>
+        <v>0.73843219781321778</v>
       </c>
       <c r="G18">
-        <v>2.7024399615354053E-2</v>
+        <v>2.7648010417111801E-2</v>
       </c>
       <c r="H18">
-        <v>0.58847077045776475</v>
+        <v>0.58784696619699994</v>
       </c>
       <c r="I18">
-        <v>0.89999999999997782</v>
+        <v>3.2428732950368784</v>
       </c>
       <c r="J18">
-        <v>3.2428732950368784</v>
+        <v>20.602296677451541</v>
       </c>
       <c r="K18">
-        <v>20.602296677451541</v>
+        <v>776346501.63544285</v>
       </c>
       <c r="L18">
-        <v>776346501.63544285</v>
+        <v>0.99704775736134654</v>
       </c>
       <c r="M18">
-        <v>0.9970477573613481</v>
+        <v>0.9784994533498399</v>
       </c>
       <c r="N18">
-        <v>0.9784994543298926</v>
+        <v>0.99706691777839485</v>
       </c>
       <c r="O18">
-        <v>0.99706691712859219</v>
+        <v>7.8493392282482713E-2</v>
       </c>
       <c r="P18">
-        <v>7.8493392282480631E-2</v>
+        <v>0.20800356641549916</v>
       </c>
       <c r="Q18">
-        <v>0.20800356197019973</v>
-      </c>
-      <c r="R18">
-        <v>7.9214822080131697E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+        <v>7.9214814257288213E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1.9772049263155157E-2</v>
       </c>
@@ -1401,7 +1348,7 @@
         <v>7.9999999999977797E-2</v>
       </c>
       <c r="C19">
-        <v>8.554945038527802E-3</v>
+        <v>8.5549451108321364E-3</v>
       </c>
       <c r="D19">
         <v>3.8974783538325425E-2</v>
@@ -1410,54 +1357,51 @@
         <v>0.05</v>
       </c>
       <c r="F19">
-        <v>6.9236539547126899E-2</v>
+        <v>6.9236539533637925E-2</v>
       </c>
       <c r="G19">
-        <v>2.6525198939014245E-2</v>
+        <v>2.6525198939014248E-2</v>
       </c>
       <c r="H19">
-        <v>1.0000022204510828E-8</v>
+        <v>1.0000022532015939E-8</v>
       </c>
       <c r="I19">
-        <v>0.78180370588693382</v>
+        <v>2.8613040667312468</v>
       </c>
       <c r="J19">
-        <v>2.8613040667312468</v>
+        <v>19.300109736630752</v>
       </c>
       <c r="K19">
-        <v>19.300109736630752</v>
+        <v>13771138.993237138</v>
       </c>
       <c r="L19">
-        <v>13771138.993237138</v>
+        <v>0.99722641565487069</v>
       </c>
       <c r="M19">
-        <v>0.99722641565331405</v>
+        <v>0.90561502449210951</v>
       </c>
       <c r="N19">
-        <v>0.90561502446077213</v>
+        <v>0.87591021078020226</v>
       </c>
       <c r="O19">
-        <v>0.8759102107479102</v>
+        <v>9.6589183978505563E-2</v>
       </c>
       <c r="P19">
-        <v>9.6589184286942187E-2</v>
+        <v>0.48232135449284791</v>
       </c>
       <c r="Q19">
-        <v>0.48232135437015872</v>
-      </c>
-      <c r="R19">
-        <v>0.50299297253555464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.5029929726503537</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2.0272924389030937E-2</v>
       </c>
       <c r="B20">
-        <v>5.2175439526389304E-2</v>
+        <v>5.2175426503924413E-2</v>
       </c>
       <c r="C20">
-        <v>0.55454143456593497</v>
+        <v>0.55454144759140145</v>
       </c>
       <c r="D20">
         <v>5.9642820938539932E-2</v>
@@ -1466,155 +1410,146 @@
         <v>0.05</v>
       </c>
       <c r="F20">
-        <v>0.33276479183032842</v>
+        <v>0.33276470254187729</v>
       </c>
       <c r="G20">
-        <v>2.6748332212831065E-2</v>
+        <v>2.6748331956605267E-2</v>
       </c>
       <c r="H20">
-        <v>0.65042568897664887</v>
+        <v>0.65042546662324241</v>
       </c>
       <c r="I20">
-        <v>0.59893061870092035</v>
+        <v>2.4328816932437634</v>
       </c>
       <c r="J20">
-        <v>2.4328816932437634</v>
+        <v>21.999999999997559</v>
       </c>
       <c r="K20">
-        <v>21.999999999997559</v>
+        <v>898068381.93210459</v>
       </c>
       <c r="L20">
-        <v>898068381.93210459</v>
+        <v>0.99345809946650954</v>
       </c>
       <c r="M20">
-        <v>0.99345809946650787</v>
+        <v>0.98977571469724623</v>
       </c>
       <c r="N20">
-        <v>0.98977571624834471</v>
+        <v>0.98300956195501266</v>
       </c>
       <c r="O20">
-        <v>0.98300955674154078</v>
+        <v>0.11614177394166739</v>
       </c>
       <c r="P20">
-        <v>0.11614177394166733</v>
+        <v>0.14235862387096321</v>
       </c>
       <c r="Q20">
-        <v>0.14235861320284879</v>
-      </c>
-      <c r="R20">
-        <v>0.19346992016493561</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.19346989248047697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1.9668880404072338E-2</v>
       </c>
       <c r="B21">
-        <v>7.9999999999967458E-2</v>
+        <v>7.9999999999977797E-2</v>
       </c>
       <c r="C21">
-        <v>2.4887620793463316</v>
+        <v>2.4887627677783648</v>
       </c>
       <c r="D21">
-        <v>3.9885083034690148E-2</v>
+        <v>3.9885083034700501E-2</v>
       </c>
       <c r="E21">
         <v>0.05</v>
       </c>
       <c r="F21">
-        <v>0.22052824673825766</v>
+        <v>0.22052818185195652</v>
       </c>
       <c r="G21">
-        <v>2.6544438529479738E-2</v>
+        <v>2.6540490249815168E-2</v>
       </c>
       <c r="H21">
-        <v>0.28486466264165505</v>
+        <v>0.28486848163484835</v>
       </c>
       <c r="I21">
-        <v>0.8494336325192583</v>
+        <v>2.9741152430411644</v>
       </c>
       <c r="J21">
-        <v>2.9741152430411644</v>
+        <v>20.951070551529636</v>
       </c>
       <c r="K21">
-        <v>20.951070551529636</v>
+        <v>1569235476.0781155</v>
       </c>
       <c r="L21">
-        <v>1569235476.0781155</v>
+        <v>0.98728130956357485</v>
       </c>
       <c r="M21">
-        <v>0.98728130956329507</v>
+        <v>0.98446626598112308</v>
       </c>
       <c r="N21">
-        <v>0.98446626949574623</v>
+        <v>0.99235941735435662</v>
       </c>
       <c r="O21">
-        <v>0.99235941421056006</v>
+        <v>0.15890606118748068</v>
       </c>
       <c r="P21">
-        <v>0.1589060611922129</v>
+        <v>0.17693460373460629</v>
       </c>
       <c r="Q21">
-        <v>0.17693458452708433</v>
-      </c>
-      <c r="R21">
-        <v>0.12703370929772076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+        <v>0.12703368751037639</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1.9997729676307426E-2</v>
       </c>
       <c r="B22">
-        <v>7.999999999996707E-2</v>
+        <v>7.9999999999959645E-2</v>
       </c>
       <c r="C22">
-        <v>2.4598587791498825</v>
+        <v>2.4598628070779123</v>
       </c>
       <c r="D22">
-        <v>4.0960712870344043E-2</v>
+        <v>4.0960712870336619E-2</v>
       </c>
       <c r="E22">
         <v>0.05</v>
       </c>
       <c r="F22">
-        <v>0.27108390988408132</v>
+        <v>0.27108348406929877</v>
       </c>
       <c r="G22">
-        <v>2.6554279071779444E-2</v>
+        <v>2.655474270710308E-2</v>
       </c>
       <c r="H22">
-        <v>0.37881638451203148</v>
+        <v>0.37881508749610882</v>
       </c>
       <c r="I22">
-        <v>0.84447608521343198</v>
+        <v>3.8163808997580695</v>
       </c>
       <c r="J22">
-        <v>3.8163808997580695</v>
+        <v>19.196796928303222</v>
       </c>
       <c r="K22">
-        <v>19.196796928303222</v>
+        <v>911747954.02784622</v>
       </c>
       <c r="L22">
-        <v>911747954.02784622</v>
+        <v>0.99437216179217491</v>
       </c>
       <c r="M22">
-        <v>0.99437216179201071</v>
+        <v>0.96043332983544327</v>
       </c>
       <c r="N22">
-        <v>0.96043335051824363</v>
+        <v>0.99538591193864889</v>
       </c>
       <c r="O22">
-        <v>0.99538589609660444</v>
+        <v>0.1066443228463962</v>
       </c>
       <c r="P22">
-        <v>0.10664432288002079</v>
+        <v>0.28176180968426606</v>
       </c>
       <c r="Q22">
-        <v>0.28176174062597947</v>
-      </c>
-      <c r="R22">
-        <v>9.6466953008505774E-2</v>
+        <v>9.6466789576702419E-2</v>
       </c>
     </row>
   </sheetData>
